--- a/natmiOut/OldD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Bsg-Slc16a1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H2">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I2">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J2">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.28804439930885</v>
+        <v>3.560797333333333</v>
       </c>
       <c r="N2">
-        <v>3.28804439930885</v>
+        <v>10.682392</v>
       </c>
       <c r="O2">
-        <v>0.09363212413790126</v>
+        <v>0.08920903641850739</v>
       </c>
       <c r="P2">
-        <v>0.09363212413790126</v>
+        <v>0.09912544905465519</v>
       </c>
       <c r="Q2">
-        <v>130.1177153226525</v>
+        <v>145.7697087899236</v>
       </c>
       <c r="R2">
-        <v>130.1177153226525</v>
+        <v>1311.927379109312</v>
       </c>
       <c r="S2">
-        <v>0.01265319144466199</v>
+        <v>0.01169453808609323</v>
       </c>
       <c r="T2">
-        <v>0.01265319144466199</v>
+        <v>0.0135653517626159</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H3">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I3">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J3">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.022551405387</v>
+        <v>15.160231</v>
       </c>
       <c r="N3">
-        <v>14.022551405387</v>
+        <v>45.480693</v>
       </c>
       <c r="O3">
-        <v>0.3993137301294602</v>
+        <v>0.3798108886264381</v>
       </c>
       <c r="P3">
-        <v>0.3993137301294602</v>
+        <v>0.4220303951532496</v>
       </c>
       <c r="Q3">
-        <v>554.9141466115652</v>
+        <v>620.6201171211386</v>
       </c>
       <c r="R3">
-        <v>554.9141466115652</v>
+        <v>5585.581054090248</v>
       </c>
       <c r="S3">
-        <v>0.05396217505830266</v>
+        <v>0.0497899437195727</v>
       </c>
       <c r="T3">
-        <v>0.05396217505830266</v>
+        <v>0.05775500458628954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H4">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I4">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J4">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.89406948202403</v>
+        <v>2.920205666666666</v>
       </c>
       <c r="N4">
-        <v>2.89406948202403</v>
+        <v>8.760617</v>
       </c>
       <c r="O4">
-        <v>0.08241308209267045</v>
+        <v>0.07316022488236669</v>
       </c>
       <c r="P4">
-        <v>0.08241308209267045</v>
+        <v>0.0812926631152317</v>
       </c>
       <c r="Q4">
-        <v>114.5269537920882</v>
+        <v>119.5455651608791</v>
       </c>
       <c r="R4">
-        <v>114.5269537920882</v>
+        <v>1075.910086447912</v>
       </c>
       <c r="S4">
-        <v>0.01113708051445449</v>
+        <v>0.009590676803863387</v>
       </c>
       <c r="T4">
-        <v>0.01113708051445449</v>
+        <v>0.01112492887946378</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H5">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I5">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J5">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.79979836106849</v>
+        <v>6.29474</v>
       </c>
       <c r="N5">
-        <v>5.79979836106849</v>
+        <v>18.88422</v>
       </c>
       <c r="O5">
-        <v>0.1651581834577751</v>
+        <v>0.1577027944410864</v>
       </c>
       <c r="P5">
-        <v>0.1651581834577751</v>
+        <v>0.1752329241940289</v>
       </c>
       <c r="Q5">
-        <v>229.5153046695252</v>
+        <v>257.6901549882134</v>
       </c>
       <c r="R5">
-        <v>229.5153046695252</v>
+        <v>2319.21139489392</v>
       </c>
       <c r="S5">
-        <v>0.0223190292133714</v>
+        <v>0.02067348118437926</v>
       </c>
       <c r="T5">
-        <v>0.0223190292133714</v>
+        <v>0.02398068588595387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5729800211954</v>
+        <v>40.93737866666667</v>
       </c>
       <c r="H6">
-        <v>39.5729800211954</v>
+        <v>122.812136</v>
       </c>
       <c r="I6">
-        <v>0.1351372892707891</v>
+        <v>0.1310914068304752</v>
       </c>
       <c r="J6">
-        <v>0.1351372892707891</v>
+        <v>0.1368503435998189</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.11216357372188</v>
+        <v>11.979235</v>
       </c>
       <c r="N6">
-        <v>9.11216357372188</v>
+        <v>23.95847</v>
       </c>
       <c r="O6">
-        <v>0.259482880182193</v>
+        <v>0.3001170556316015</v>
       </c>
       <c r="P6">
-        <v>0.259482880182193</v>
+        <v>0.2223185684828346</v>
       </c>
       <c r="Q6">
-        <v>360.5954670527604</v>
+        <v>490.3984793319867</v>
       </c>
       <c r="R6">
-        <v>360.5954670527604</v>
+        <v>2942.39087599192</v>
       </c>
       <c r="S6">
-        <v>0.03506581303999851</v>
+        <v>0.03934276703656663</v>
       </c>
       <c r="T6">
-        <v>0.03506581303999851</v>
+        <v>0.03042437248549578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H7">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I7">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J7">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.28804439930885</v>
+        <v>3.560797333333333</v>
       </c>
       <c r="N7">
-        <v>3.28804439930885</v>
+        <v>10.682392</v>
       </c>
       <c r="O7">
-        <v>0.09363212413790126</v>
+        <v>0.08920903641850739</v>
       </c>
       <c r="P7">
-        <v>0.09363212413790126</v>
+        <v>0.09912544905465519</v>
       </c>
       <c r="Q7">
-        <v>422.5384167606957</v>
+        <v>503.8516452296818</v>
       </c>
       <c r="R7">
-        <v>422.5384167606957</v>
+        <v>4534.664807067136</v>
       </c>
       <c r="S7">
-        <v>0.04108940482654385</v>
+        <v>0.04042206233238053</v>
       </c>
       <c r="T7">
-        <v>0.04108940482654385</v>
+        <v>0.04688851243822924</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H8">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I8">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J8">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.022551405387</v>
+        <v>15.160231</v>
       </c>
       <c r="N8">
-        <v>14.022551405387</v>
+        <v>45.480693</v>
       </c>
       <c r="O8">
-        <v>0.3993137301294602</v>
+        <v>0.3798108886264381</v>
       </c>
       <c r="P8">
-        <v>0.3993137301294602</v>
+        <v>0.4220303951532496</v>
       </c>
       <c r="Q8">
-        <v>1802.003242724808</v>
+        <v>2145.167673516949</v>
       </c>
       <c r="R8">
-        <v>1802.003242724808</v>
+        <v>19306.50906165254</v>
       </c>
       <c r="S8">
-        <v>0.1752343403629467</v>
+        <v>0.1720984782589763</v>
       </c>
       <c r="T8">
-        <v>0.1752343403629467</v>
+        <v>0.1996296372038945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H9">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I9">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J9">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.89406948202403</v>
+        <v>2.920205666666666</v>
       </c>
       <c r="N9">
-        <v>2.89406948202403</v>
+        <v>8.760617</v>
       </c>
       <c r="O9">
-        <v>0.08241308209267045</v>
+        <v>0.07316022488236669</v>
       </c>
       <c r="P9">
-        <v>0.08241308209267045</v>
+        <v>0.0812926631152317</v>
       </c>
       <c r="Q9">
-        <v>371.9096789529137</v>
+        <v>413.2081362186595</v>
       </c>
       <c r="R9">
-        <v>371.9096789529137</v>
+        <v>3718.873225967936</v>
       </c>
       <c r="S9">
-        <v>0.03616605437810621</v>
+        <v>0.03315008534082185</v>
       </c>
       <c r="T9">
-        <v>0.03616605437810621</v>
+        <v>0.03845321339743595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H10">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I10">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J10">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.79979836106849</v>
+        <v>6.29474</v>
       </c>
       <c r="N10">
-        <v>5.79979836106849</v>
+        <v>18.88422</v>
       </c>
       <c r="O10">
-        <v>0.1651581834577751</v>
+        <v>0.1577027944410864</v>
       </c>
       <c r="P10">
-        <v>0.1651581834577751</v>
+        <v>0.1752329241940289</v>
       </c>
       <c r="Q10">
-        <v>745.3176780496892</v>
+        <v>890.7036285393067</v>
       </c>
       <c r="R10">
-        <v>745.3176780496892</v>
+        <v>8016.33265685376</v>
       </c>
       <c r="S10">
-        <v>0.0724778116805119</v>
+        <v>0.07145769579869257</v>
       </c>
       <c r="T10">
-        <v>0.0724778116805119</v>
+        <v>0.08288901814839388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>128.507515546175</v>
+        <v>141.4996693333333</v>
       </c>
       <c r="H11">
-        <v>128.507515546175</v>
+        <v>424.499008</v>
       </c>
       <c r="I11">
-        <v>0.4388387554470882</v>
+        <v>0.4531162307677896</v>
       </c>
       <c r="J11">
-        <v>0.4388387554470882</v>
+        <v>0.4730219422499276</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.11216357372188</v>
+        <v>11.979235</v>
       </c>
       <c r="N11">
-        <v>9.11216357372188</v>
+        <v>23.95847</v>
       </c>
       <c r="O11">
-        <v>0.259482880182193</v>
+        <v>0.3001170556316015</v>
       </c>
       <c r="P11">
-        <v>0.259482880182193</v>
+        <v>0.2223185684828346</v>
       </c>
       <c r="Q11">
-        <v>1170.981502109354</v>
+        <v>1695.057791366293</v>
       </c>
       <c r="R11">
-        <v>1170.981502109354</v>
+        <v>10170.34674819776</v>
       </c>
       <c r="S11">
-        <v>0.1138711441989795</v>
+        <v>0.1359879090369183</v>
       </c>
       <c r="T11">
-        <v>0.1138711441989795</v>
+        <v>0.105161561061974</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H12">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I12">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J12">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28804439930885</v>
+        <v>3.560797333333333</v>
       </c>
       <c r="N12">
-        <v>3.28804439930885</v>
+        <v>10.682392</v>
       </c>
       <c r="O12">
-        <v>0.09363212413790126</v>
+        <v>0.08920903641850739</v>
       </c>
       <c r="P12">
-        <v>0.09363212413790126</v>
+        <v>0.09912544905465519</v>
       </c>
       <c r="Q12">
-        <v>130.0774764321744</v>
+        <v>146.7813977805404</v>
       </c>
       <c r="R12">
-        <v>130.0774764321744</v>
+        <v>1321.032580024864</v>
       </c>
       <c r="S12">
-        <v>0.01264927844647048</v>
+        <v>0.01177570196801537</v>
       </c>
       <c r="T12">
-        <v>0.01264927844647048</v>
+        <v>0.01365949969736867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H13">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I13">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J13">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.022551405387</v>
+        <v>15.160231</v>
       </c>
       <c r="N13">
-        <v>14.022551405387</v>
+        <v>45.480693</v>
       </c>
       <c r="O13">
-        <v>0.3993137301294602</v>
+        <v>0.3798108886264381</v>
       </c>
       <c r="P13">
-        <v>0.3993137301294602</v>
+        <v>0.4220303951532496</v>
       </c>
       <c r="Q13">
-        <v>554.7425394671043</v>
+        <v>624.9274217392173</v>
       </c>
       <c r="R13">
-        <v>554.7425394671043</v>
+        <v>5624.346795652955</v>
       </c>
       <c r="S13">
-        <v>0.05394548726105114</v>
+        <v>0.05013550205485839</v>
       </c>
       <c r="T13">
-        <v>0.05394548726105114</v>
+        <v>0.05815584302369894</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H14">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I14">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J14">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.89406948202403</v>
+        <v>2.920205666666666</v>
       </c>
       <c r="N14">
-        <v>2.89406948202403</v>
+        <v>8.760617</v>
       </c>
       <c r="O14">
-        <v>0.08241308209267045</v>
+        <v>0.07316022488236669</v>
       </c>
       <c r="P14">
-        <v>0.08241308209267045</v>
+        <v>0.0812926631152317</v>
       </c>
       <c r="Q14">
-        <v>114.4915363430575</v>
+        <v>120.3752501012849</v>
       </c>
       <c r="R14">
-        <v>114.4915363430575</v>
+        <v>1083.377250911564</v>
       </c>
       <c r="S14">
-        <v>0.01113363637341684</v>
+        <v>0.009657239207092281</v>
       </c>
       <c r="T14">
-        <v>0.01113363637341684</v>
+        <v>0.01120213948900797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H15">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I15">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J15">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.79979836106849</v>
+        <v>6.29474</v>
       </c>
       <c r="N15">
-        <v>5.79979836106849</v>
+        <v>18.88422</v>
       </c>
       <c r="O15">
-        <v>0.1651581834577751</v>
+        <v>0.1577027944410864</v>
       </c>
       <c r="P15">
-        <v>0.1651581834577751</v>
+        <v>0.1752329241940289</v>
       </c>
       <c r="Q15">
-        <v>229.444327084461</v>
+        <v>259.4786081240267</v>
       </c>
       <c r="R15">
-        <v>229.444327084461</v>
+        <v>2335.30747311624</v>
       </c>
       <c r="S15">
-        <v>0.02231212705581454</v>
+        <v>0.02081696183948644</v>
       </c>
       <c r="T15">
-        <v>0.02231212705581454</v>
+        <v>0.02414711961282112</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.5607420810731</v>
+        <v>41.22149733333333</v>
       </c>
       <c r="H16">
-        <v>39.5607420810731</v>
+        <v>123.664492</v>
       </c>
       <c r="I16">
-        <v>0.1350954980775683</v>
+        <v>0.1320012236515131</v>
       </c>
       <c r="J16">
-        <v>0.1350954980775683</v>
+        <v>0.1378001293072295</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.11216357372188</v>
+        <v>11.979235</v>
       </c>
       <c r="N16">
-        <v>9.11216357372188</v>
+        <v>23.95847</v>
       </c>
       <c r="O16">
-        <v>0.259482880182193</v>
+        <v>0.3001170556316015</v>
       </c>
       <c r="P16">
-        <v>0.259482880182193</v>
+        <v>0.2223185684828346</v>
       </c>
       <c r="Q16">
-        <v>360.4839529405606</v>
+        <v>493.8020036078733</v>
       </c>
       <c r="R16">
-        <v>360.4839529405606</v>
+        <v>2962.81202164724</v>
       </c>
       <c r="S16">
-        <v>0.03505496894081535</v>
+        <v>0.03961581858206063</v>
       </c>
       <c r="T16">
-        <v>0.03505496894081535</v>
+        <v>0.03063552748433275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H17">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I17">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J17">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.28804439930885</v>
+        <v>3.560797333333333</v>
       </c>
       <c r="N17">
-        <v>3.28804439930885</v>
+        <v>10.682392</v>
       </c>
       <c r="O17">
-        <v>0.09363212413790126</v>
+        <v>0.08920903641850739</v>
       </c>
       <c r="P17">
-        <v>0.09363212413790126</v>
+        <v>0.09912544905465519</v>
       </c>
       <c r="Q17">
-        <v>161.6359229395137</v>
+        <v>175.185449625928</v>
       </c>
       <c r="R17">
-        <v>161.6359229395137</v>
+        <v>1576.669046633352</v>
       </c>
       <c r="S17">
-        <v>0.01571815392098453</v>
+        <v>0.01405444882744666</v>
       </c>
       <c r="T17">
-        <v>0.01571815392098453</v>
+        <v>0.01630278517804116</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H18">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I18">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J18">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.022551405387</v>
+        <v>15.160231</v>
       </c>
       <c r="N18">
-        <v>14.022551405387</v>
+        <v>45.480693</v>
       </c>
       <c r="O18">
-        <v>0.3993137301294602</v>
+        <v>0.3798108886264381</v>
       </c>
       <c r="P18">
-        <v>0.3993137301294602</v>
+        <v>0.4220303951532496</v>
       </c>
       <c r="Q18">
-        <v>689.3301194025643</v>
+        <v>745.8587601450869</v>
       </c>
       <c r="R18">
-        <v>689.3301194025643</v>
+        <v>6712.728841305783</v>
       </c>
       <c r="S18">
-        <v>0.06703334705611666</v>
+        <v>0.05983735406876207</v>
       </c>
       <c r="T18">
-        <v>0.06703334705611666</v>
+        <v>0.06940973217678589</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H19">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I19">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J19">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.89406948202403</v>
+        <v>2.920205666666666</v>
       </c>
       <c r="N19">
-        <v>2.89406948202403</v>
+        <v>8.760617</v>
       </c>
       <c r="O19">
-        <v>0.08241308209267045</v>
+        <v>0.07316022488236669</v>
       </c>
       <c r="P19">
-        <v>0.08241308209267045</v>
+        <v>0.0812926631152317</v>
       </c>
       <c r="Q19">
-        <v>142.2686359941987</v>
+        <v>143.669379306203</v>
       </c>
       <c r="R19">
-        <v>142.2686359941987</v>
+        <v>1293.024413755827</v>
       </c>
       <c r="S19">
-        <v>0.01383479784702408</v>
+        <v>0.01152603680180986</v>
       </c>
       <c r="T19">
-        <v>0.01383479784702408</v>
+        <v>0.0133698947743254</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H20">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I20">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J20">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.79979836106849</v>
+        <v>6.29474</v>
       </c>
       <c r="N20">
-        <v>5.79979836106849</v>
+        <v>18.88422</v>
       </c>
       <c r="O20">
-        <v>0.1651581834577751</v>
+        <v>0.1577027944410864</v>
       </c>
       <c r="P20">
-        <v>0.1651581834577751</v>
+        <v>0.1752329241940289</v>
       </c>
       <c r="Q20">
-        <v>285.1104325572484</v>
+        <v>309.69099163698</v>
       </c>
       <c r="R20">
-        <v>285.1104325572484</v>
+        <v>2787.21892473282</v>
       </c>
       <c r="S20">
-        <v>0.02772533222760334</v>
+        <v>0.02484530652275677</v>
       </c>
       <c r="T20">
-        <v>0.02772533222760334</v>
+        <v>0.02881989182899003</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>49.1586801484462</v>
+        <v>49.198377</v>
       </c>
       <c r="H21">
-        <v>49.1586801484462</v>
+        <v>147.595131</v>
       </c>
       <c r="I21">
-        <v>0.1678713803163843</v>
+        <v>0.1575451253784747</v>
       </c>
       <c r="J21">
-        <v>0.1678713803163843</v>
+        <v>0.1644661924210021</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.11216357372188</v>
+        <v>11.979235</v>
       </c>
       <c r="N21">
-        <v>9.11216357372188</v>
+        <v>23.95847</v>
       </c>
       <c r="O21">
-        <v>0.259482880182193</v>
+        <v>0.3001170556316015</v>
       </c>
       <c r="P21">
-        <v>0.259482880182193</v>
+        <v>0.2223185684828346</v>
       </c>
       <c r="Q21">
-        <v>447.9419345809164</v>
+        <v>589.3589197015949</v>
       </c>
       <c r="R21">
-        <v>447.9419345809164</v>
+        <v>3536.15351820957</v>
       </c>
       <c r="S21">
-        <v>0.04355974926465569</v>
+        <v>0.04728197915769931</v>
       </c>
       <c r="T21">
-        <v>0.04355974926465569</v>
+        <v>0.0365638884628596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>36.0354663871069</v>
+        <v>39.4242535</v>
       </c>
       <c r="H22">
-        <v>36.0354663871069</v>
+        <v>78.848507</v>
       </c>
       <c r="I22">
-        <v>0.1230570768881701</v>
+        <v>0.1262460133717474</v>
       </c>
       <c r="J22">
-        <v>0.1230570768881701</v>
+        <v>0.0878613924220219</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.28804439930885</v>
+        <v>3.560797333333333</v>
       </c>
       <c r="N22">
-        <v>3.28804439930885</v>
+        <v>10.682392</v>
       </c>
       <c r="O22">
-        <v>0.09363212413790126</v>
+        <v>0.08920903641850739</v>
       </c>
       <c r="P22">
-        <v>0.09363212413790126</v>
+        <v>0.09912544905465519</v>
       </c>
       <c r="Q22">
-        <v>118.4862134306092</v>
+        <v>140.3817767314573</v>
       </c>
       <c r="R22">
-        <v>118.4862134306092</v>
+        <v>842.290660388744</v>
       </c>
       <c r="S22">
-        <v>0.0115220954992404</v>
+        <v>0.01126228520457158</v>
       </c>
       <c r="T22">
-        <v>0.0115220954992404</v>
+        <v>0.0087092999784002</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>36.0354663871069</v>
+        <v>39.4242535</v>
       </c>
       <c r="H23">
-        <v>36.0354663871069</v>
+        <v>78.848507</v>
       </c>
       <c r="I23">
-        <v>0.1230570768881701</v>
+        <v>0.1262460133717474</v>
       </c>
       <c r="J23">
-        <v>0.1230570768881701</v>
+        <v>0.0878613924220219</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>14.022551405387</v>
+        <v>15.160231</v>
       </c>
       <c r="N23">
-        <v>14.022551405387</v>
+        <v>45.480693</v>
       </c>
       <c r="O23">
-        <v>0.3993137301294602</v>
+        <v>0.3798108886264381</v>
       </c>
       <c r="P23">
-        <v>0.3993137301294602</v>
+        <v>0.4220303951532496</v>
       </c>
       <c r="Q23">
-        <v>505.3091798303019</v>
+        <v>597.6807900625583</v>
       </c>
       <c r="R23">
-        <v>505.3091798303019</v>
+        <v>3586.084740375351</v>
       </c>
       <c r="S23">
-        <v>0.04913838039104299</v>
+        <v>0.04794961052426856</v>
       </c>
       <c r="T23">
-        <v>0.04913838039104299</v>
+        <v>0.03708017816258063</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>36.0354663871069</v>
+        <v>39.4242535</v>
       </c>
       <c r="H24">
-        <v>36.0354663871069</v>
+        <v>78.848507</v>
       </c>
       <c r="I24">
-        <v>0.1230570768881701</v>
+        <v>0.1262460133717474</v>
       </c>
       <c r="J24">
-        <v>0.1230570768881701</v>
+        <v>0.0878613924220219</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.89406948202403</v>
+        <v>2.920205666666666</v>
       </c>
       <c r="N24">
-        <v>2.89406948202403</v>
+        <v>8.760617</v>
       </c>
       <c r="O24">
-        <v>0.08241308209267045</v>
+        <v>0.07316022488236669</v>
       </c>
       <c r="P24">
-        <v>0.08241308209267045</v>
+        <v>0.0812926631152317</v>
       </c>
       <c r="Q24">
-        <v>104.2891435414288</v>
+        <v>115.1269284748032</v>
       </c>
       <c r="R24">
-        <v>104.2891435414288</v>
+        <v>690.761570848819</v>
       </c>
       <c r="S24">
-        <v>0.01014151297966882</v>
+        <v>0.00923618672877931</v>
       </c>
       <c r="T24">
-        <v>0.01014151297966882</v>
+        <v>0.007142486574998597</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>36.0354663871069</v>
+        <v>39.4242535</v>
       </c>
       <c r="H25">
-        <v>36.0354663871069</v>
+        <v>78.848507</v>
       </c>
       <c r="I25">
-        <v>0.1230570768881701</v>
+        <v>0.1262460133717474</v>
       </c>
       <c r="J25">
-        <v>0.1230570768881701</v>
+        <v>0.0878613924220219</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.79979836106849</v>
+        <v>6.29474</v>
       </c>
       <c r="N25">
-        <v>5.79979836106849</v>
+        <v>18.88422</v>
       </c>
       <c r="O25">
-        <v>0.1651581834577751</v>
+        <v>0.1577027944410864</v>
       </c>
       <c r="P25">
-        <v>0.1651581834577751</v>
+        <v>0.1752329241940289</v>
       </c>
       <c r="Q25">
-        <v>208.9984388922813</v>
+        <v>248.16542547659</v>
       </c>
       <c r="R25">
-        <v>208.9984388922813</v>
+        <v>1488.99255285954</v>
       </c>
       <c r="S25">
-        <v>0.02032388328047394</v>
+        <v>0.01990934909577132</v>
       </c>
       <c r="T25">
-        <v>0.02032388328047394</v>
+        <v>0.01539620871786999</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.0354663871069</v>
+        <v>39.4242535</v>
       </c>
       <c r="H26">
-        <v>36.0354663871069</v>
+        <v>78.848507</v>
       </c>
       <c r="I26">
-        <v>0.1230570768881701</v>
+        <v>0.1262460133717474</v>
       </c>
       <c r="J26">
-        <v>0.1230570768881701</v>
+        <v>0.0878613924220219</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.11216357372188</v>
+        <v>11.979235</v>
       </c>
       <c r="N26">
-        <v>9.11216357372188</v>
+        <v>23.95847</v>
       </c>
       <c r="O26">
-        <v>0.259482880182193</v>
+        <v>0.3001170556316015</v>
       </c>
       <c r="P26">
-        <v>0.259482880182193</v>
+        <v>0.2223185684828346</v>
       </c>
       <c r="Q26">
-        <v>328.3610641746747</v>
+        <v>472.2723973760724</v>
       </c>
       <c r="R26">
-        <v>328.3610641746747</v>
+        <v>1889.08958950429</v>
       </c>
       <c r="S26">
-        <v>0.03193120473774395</v>
+        <v>0.03788858181835661</v>
       </c>
       <c r="T26">
-        <v>0.03193120473774395</v>
+        <v>0.01953321898817248</v>
       </c>
     </row>
   </sheetData>
